--- a/DbLayouts/L5-管理性作業/PfBsDetailAdjust.xlsx
+++ b/DbLayouts/L5-管理性作業/PfBsDetailAdjust.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>WorkMonth</t>
   </si>
   <si>
@@ -219,6 +215,10 @@
   </si>
   <si>
     <t>工作季</t>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND WorkMonth =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,6 +481,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -492,15 +501,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -826,10 +826,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
@@ -841,8 +841,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -854,10 +854,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="12" t="s">
         <v>37</v>
       </c>
@@ -869,10 +869,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -880,10 +880,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
@@ -893,10 +893,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -904,10 +904,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1045,16 +1045,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="D14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="35">
+      <c r="E14" s="31">
         <v>6</v>
       </c>
       <c r="F14" s="27"/>
@@ -1065,16 +1065,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="D15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="31">
         <v>5</v>
       </c>
       <c r="F15" s="27"/>
@@ -1176,9 +1176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1205,7 +1205,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfBsDetailAdjust.xlsx
+++ b/DbLayouts/L5-管理性作業/PfBsDetailAdjust.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -186,10 +186,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo,FacmNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PfBsDetailAdjust</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -202,22 +198,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>工作月</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>WorkSeason</t>
+  </si>
+  <si>
+    <t>工作季</t>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND WorkMonth =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>WorkMonth</t>
-  </si>
-  <si>
-    <t>工作月</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>WorkSeason</t>
-  </si>
-  <si>
-    <t>工作季</t>
-  </si>
-  <si>
-    <t>CustNo = ,AND FacmNo = ,AND WorkMonth =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,FacmNo,WorkMonth</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -810,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -831,10 +832,10 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -885,7 +886,7 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1001,21 +1002,19 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="26">
-        <v>5</v>
-      </c>
-      <c r="F12" s="27">
-        <v>1</v>
-      </c>
+      <c r="B12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="31">
+        <v>6</v>
+      </c>
+      <c r="F12" s="27"/>
       <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1023,41 +1022,41 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="26">
-        <v>16</v>
-      </c>
-      <c r="F13" s="27">
-        <v>2</v>
-      </c>
+      <c r="B13" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="31">
+        <v>5</v>
+      </c>
+      <c r="F13" s="27"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="31">
-        <v>6</v>
-      </c>
-      <c r="F14" s="27"/>
+      <c r="B14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="26">
+        <v>5</v>
+      </c>
+      <c r="F14" s="27">
+        <v>1</v>
+      </c>
       <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1065,19 +1064,21 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="31">
-        <v>5</v>
-      </c>
-      <c r="F15" s="27"/>
+      <c r="B15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="26">
+        <v>16</v>
+      </c>
+      <c r="F15" s="27">
+        <v>2</v>
+      </c>
       <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1176,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -1202,10 +1203,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfBsDetailAdjust.xlsx
+++ b/DbLayouts/L5-管理性作業/PfBsDetailAdjust.xlsx
@@ -186,10 +186,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>PfBsDetailAdjust</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>房貸專員業績調整檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -219,6 +215,10 @@
   </si>
   <si>
     <t>CustNo,FacmNo,WorkMonth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PfBsDetailAdjust</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +812,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -832,10 +832,10 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -886,7 +886,7 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1003,13 +1003,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="E12" s="31">
         <v>6</v>
@@ -1023,13 +1023,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>49</v>
-      </c>
       <c r="D13" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="31">
         <v>5</v>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
